--- a/Avantis Mapping/SPARQL_tag.xlsx
+++ b/Avantis Mapping/SPARQL_tag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medney\Documents\GitHub\TWONTO\Avantis Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540C2ABD-9355-48B4-B255-01549F2DC1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B70913-A2B2-4E7B-9119-02DE4611A750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{716C0CF8-2E33-46F2-BE6F-578AC5702A19}"/>
   </bookViews>
@@ -36,209 +36,101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="244">
   <si>
     <t>TWONTO</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#air_duct_segment</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#cable_segment</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#instrument_gauge_or_display</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#instrumentation</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#electrical_panel_or_cabinet</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#humidier</t>
-  </si>
-  <si>
     <t>HU</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#chlorinator_system</t>
-  </si>
-  <si>
     <t>CHL</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#ozone_generator</t>
-  </si>
-  <si>
     <t>OZ</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#gearbox</t>
-  </si>
-  <si>
     <t>GB</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#alarm_device</t>
-  </si>
-  <si>
     <t>ALR</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#clarifier</t>
-  </si>
-  <si>
     <t>CLR</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#instrument_element</t>
-  </si>
-  <si>
     <t>AE</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#pressurized_sewer_segment</t>
-  </si>
-  <si>
     <t>FM</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#channel_gate</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#600V_insulated_case_electrical_cabinet</t>
-  </si>
-  <si>
     <t>PDP</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#security_camera</t>
-  </si>
-  <si>
     <t>SCAM</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#public_annoucement_speaker</t>
   </si>
   <si>
     <t>AMP_x000D_
 PA</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#AC_evaporator_unit</t>
-  </si>
-  <si>
     <t>EV</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#dehumidifier</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#ac_condenser_unit</t>
-  </si>
-  <si>
     <t>CU</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#pulsation_dampener</t>
-  </si>
-  <si>
     <t>PDM</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#crane</t>
-  </si>
-  <si>
     <t>CRN</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#engine</t>
-  </si>
-  <si>
     <t>ENG</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#rupture_disc</t>
-  </si>
-  <si>
     <t>RD</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#pipe_segment</t>
-  </si>
-  <si>
     <t>PIP</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#chiller</t>
-  </si>
-  <si>
     <t>CI</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#centrifuge</t>
-  </si>
-  <si>
     <t>CF</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#air_handler_unit</t>
-  </si>
-  <si>
     <t>AHU</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#auto_sampler</t>
-  </si>
-  <si>
     <t>SP</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#automatic_external_defibrillator</t>
-  </si>
-  <si>
     <t>DEF</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#elevator</t>
-  </si>
-  <si>
     <t>ELV</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#self-contained_breathing_apparatus</t>
-  </si>
-  <si>
     <t>SCBA</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#level_switch</t>
-  </si>
-  <si>
     <t>LS</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#temperature_transmitter</t>
   </si>
   <si>
     <t>TIT_x000D_
 TT</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#power_washer</t>
-  </si>
-  <si>
     <t>PWU</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#weight_scale</t>
   </si>
   <si>
     <t>WIT_x000D_
@@ -246,73 +138,40 @@
 WSC</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#manhole</t>
-  </si>
-  <si>
     <t>MH</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#display_panel</t>
-  </si>
-  <si>
     <t>DD</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#roll_up_door</t>
-  </si>
-  <si>
     <t>DR</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#UV_disinfection_assembly</t>
-  </si>
-  <si>
     <t>UV</t>
   </si>
   <si>
     <t>GA</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#transformer</t>
-  </si>
-  <si>
     <t>TR</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#flow_element</t>
-  </si>
-  <si>
     <t>FE</t>
   </si>
   <si>
     <t>CBL</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#fixed_gas_detector</t>
-  </si>
-  <si>
     <t>AM</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#slude_density_meter</t>
-  </si>
-  <si>
     <t>DIT</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#strainer</t>
-  </si>
-  <si>
     <t>STR</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#power_harmonic_filter</t>
-  </si>
-  <si>
     <t>HF</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#valve</t>
   </si>
   <si>
     <t>V_x000D_
@@ -320,67 +179,34 @@
 PCV</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#air_scrubber</t>
-  </si>
-  <si>
     <t>SB</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#grinder_or_comminutor</t>
-  </si>
-  <si>
     <t>GDR</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#air_condition</t>
-  </si>
-  <si>
     <t>AC</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#120V-208V_electrical_panel</t>
-  </si>
-  <si>
     <t>LP</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#heat_exchanger</t>
-  </si>
-  <si>
     <t>HE</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#computer</t>
-  </si>
-  <si>
     <t>CPU</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#SCADA_computer_terminal</t>
-  </si>
-  <si>
     <t>OIT</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#instrument_transmitter</t>
-  </si>
-  <si>
     <t>AIT</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#temperature_sensor_element</t>
-  </si>
-  <si>
     <t>TE</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#ejector</t>
-  </si>
-  <si>
     <t>INJ</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#position_sensing_instrument</t>
   </si>
   <si>
     <t>ZIT_x000D_
@@ -388,31 +214,16 @@
 ZT</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#condensate_trap</t>
-  </si>
-  <si>
     <t>DT</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#classifier</t>
-  </si>
-  <si>
     <t>CL</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#flame_arrestor</t>
-  </si>
-  <si>
     <t>FX</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#outfall_or_discharge_point</t>
-  </si>
-  <si>
     <t>OTF</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#5kV_electrical_cabinet</t>
   </si>
   <si>
     <t>BUS_x000D_
@@ -422,77 +233,38 @@
     <t>DU</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#hydrant</t>
-  </si>
-  <si>
     <t>HYD</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#dust_collector</t>
-  </si>
-  <si>
     <t>DCU</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#fire_rated_door</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#pressure_transmitter</t>
   </si>
   <si>
     <t>PIT_x000D_
 PT</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#screen</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#battery_charger</t>
-  </si>
-  <si>
     <t>BAT</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#mixer_or_agitator</t>
-  </si>
-  <si>
     <t>MX</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#UPS</t>
-  </si>
-  <si>
     <t>UPS</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#furnace</t>
-  </si>
-  <si>
     <t>FU</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#reservoir_tank</t>
-  </si>
-  <si>
     <t>RES</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#variable_air_volume_unit</t>
-  </si>
-  <si>
     <t>VAV</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#burner_component_of_asset</t>
-  </si>
-  <si>
     <t>BU</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#flow_transmitter</t>
   </si>
   <si>
     <t>FIT_x000D_
@@ -502,237 +274,120 @@
     <t>BUS</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#disconnect_switch</t>
-  </si>
-  <si>
     <t>DS</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#flow_switch</t>
-  </si>
-  <si>
     <t>FS</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#heater</t>
-  </si>
-  <si>
     <t>HTR</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#generator-set</t>
-  </si>
-  <si>
     <t>GEN</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#well</t>
-  </si>
-  <si>
     <t>WEL</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#collector_mechanism</t>
-  </si>
-  <si>
     <t>CM</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#capacitor</t>
-  </si>
-  <si>
     <t>CAP</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#level_sensor_element</t>
-  </si>
-  <si>
     <t>LE</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#compactor</t>
-  </si>
-  <si>
     <t>CMP</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#blower</t>
   </si>
   <si>
     <t>BL_x000D_
 FN</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#controller</t>
-  </si>
-  <si>
     <t>CT</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#pump_-_without_drive</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#material_distribution_panel</t>
-  </si>
-  <si>
     <t>DP</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#controlled_door_access</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#server_appliance</t>
-  </si>
-  <si>
     <t>SERV</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#motor</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#quencher</t>
-  </si>
-  <si>
     <t>QUEN</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#protection_relay</t>
-  </si>
-  <si>
     <t>AFR</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#process_control_panel</t>
-  </si>
-  <si>
     <t>CP</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#transfer_switch</t>
-  </si>
-  <si>
     <t>TS</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#reactor</t>
-  </si>
-  <si>
     <t>RX</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#trap_priming_device</t>
-  </si>
-  <si>
     <t>TPD</t>
   </si>
   <si>
     <t>INQ</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#battery</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#ash_lagoon</t>
-  </si>
-  <si>
     <t>LAG</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#storage_tank</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#welding_receptacle</t>
-  </si>
-  <si>
     <t>WR</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#vibration_analyzer</t>
-  </si>
-  <si>
     <t>VIT</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#RTU</t>
   </si>
   <si>
     <t>RPU_x000D_
 RTU</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#compressor</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#air_damper</t>
-  </si>
-  <si>
     <t>DM</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#motor_starter</t>
-  </si>
-  <si>
     <t>ST</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#spill_kit</t>
-  </si>
-  <si>
     <t>SPL</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#torque_switch</t>
-  </si>
-  <si>
     <t>XSH</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#boiler</t>
-  </si>
-  <si>
     <t>BO</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#conveyor</t>
-  </si>
-  <si>
     <t>CV</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#equipment_or_access_chamber</t>
-  </si>
-  <si>
     <t>CH</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#hydraulic_power_pack</t>
-  </si>
-  <si>
     <t>HPU</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#large_stationary_tool</t>
-  </si>
-  <si>
     <t>SM</t>
   </si>
   <si>
     <t>MON</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#level_transmitter</t>
   </si>
   <si>
     <t>LRT_x000D_
@@ -740,45 +395,24 @@
 LT</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#surge_suppressor</t>
-  </si>
-  <si>
     <t>VSS</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#backflow_preventer</t>
-  </si>
-  <si>
     <t>BFP</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#annunciator_panel</t>
-  </si>
-  <si>
     <t>FA</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#first_aid_kit</t>
-  </si>
-  <si>
     <t>FAK</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#ladder</t>
-  </si>
-  <si>
     <t>LDR</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#data_logger</t>
-  </si>
-  <si>
     <t>RC</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#ground_and_test_device</t>
-  </si>
-  <si>
     <t>GRF</t>
   </si>
   <si>
@@ -786,6 +420,369 @@
   </si>
   <si>
     <t>Tag</t>
+  </si>
+  <si>
+    <t>humidier</t>
+  </si>
+  <si>
+    <t>chlorinator_system</t>
+  </si>
+  <si>
+    <t>ozone_generator</t>
+  </si>
+  <si>
+    <t>gearbox</t>
+  </si>
+  <si>
+    <t>alarm_device</t>
+  </si>
+  <si>
+    <t>clarifier</t>
+  </si>
+  <si>
+    <t>instrument_element</t>
+  </si>
+  <si>
+    <t>pressurized_sewer_segment</t>
+  </si>
+  <si>
+    <t>channel_gate</t>
+  </si>
+  <si>
+    <t>600V_insulated_case_electrical_cabinet</t>
+  </si>
+  <si>
+    <t>security_camera</t>
+  </si>
+  <si>
+    <t>public_annoucement_speaker</t>
+  </si>
+  <si>
+    <t>AC_evaporator_unit</t>
+  </si>
+  <si>
+    <t>dehumidifier</t>
+  </si>
+  <si>
+    <t>ac_condenser_unit</t>
+  </si>
+  <si>
+    <t>pulsation_dampener</t>
+  </si>
+  <si>
+    <t>crane</t>
+  </si>
+  <si>
+    <t>engine</t>
+  </si>
+  <si>
+    <t>rupture_disc</t>
+  </si>
+  <si>
+    <t>pipe_segment</t>
+  </si>
+  <si>
+    <t>chiller</t>
+  </si>
+  <si>
+    <t>centrifuge</t>
+  </si>
+  <si>
+    <t>air_handler_unit</t>
+  </si>
+  <si>
+    <t>auto_sampler</t>
+  </si>
+  <si>
+    <t>automatic_external_defibrillator</t>
+  </si>
+  <si>
+    <t>elevator</t>
+  </si>
+  <si>
+    <t>self-contained_breathing_apparatus</t>
+  </si>
+  <si>
+    <t>level_switch</t>
+  </si>
+  <si>
+    <t>temperature_transmitter</t>
+  </si>
+  <si>
+    <t>power_washer</t>
+  </si>
+  <si>
+    <t>weight_scale</t>
+  </si>
+  <si>
+    <t>manhole</t>
+  </si>
+  <si>
+    <t>display_panel</t>
+  </si>
+  <si>
+    <t>roll_up_door</t>
+  </si>
+  <si>
+    <t>UV_disinfection_assembly</t>
+  </si>
+  <si>
+    <t>instrument_gauge_or_display</t>
+  </si>
+  <si>
+    <t>transformer</t>
+  </si>
+  <si>
+    <t>flow_element</t>
+  </si>
+  <si>
+    <t>cable_segment</t>
+  </si>
+  <si>
+    <t>fixed_gas_detector</t>
+  </si>
+  <si>
+    <t>slude_density_meter</t>
+  </si>
+  <si>
+    <t>strainer</t>
+  </si>
+  <si>
+    <t>power_harmonic_filter</t>
+  </si>
+  <si>
+    <t>valve</t>
+  </si>
+  <si>
+    <t>air_scrubber</t>
+  </si>
+  <si>
+    <t>grinder_or_comminutor</t>
+  </si>
+  <si>
+    <t>air_condition</t>
+  </si>
+  <si>
+    <t>120V-208V_electrical_panel</t>
+  </si>
+  <si>
+    <t>heat_exchanger</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>SCADA_computer_terminal</t>
+  </si>
+  <si>
+    <t>instrument_transmitter</t>
+  </si>
+  <si>
+    <t>temperature_sensor_element</t>
+  </si>
+  <si>
+    <t>ejector</t>
+  </si>
+  <si>
+    <t>position_sensing_instrument</t>
+  </si>
+  <si>
+    <t>condensate_trap</t>
+  </si>
+  <si>
+    <t>classifier</t>
+  </si>
+  <si>
+    <t>flame_arrestor</t>
+  </si>
+  <si>
+    <t>outfall_or_discharge_point</t>
+  </si>
+  <si>
+    <t>5kV_electrical_cabinet</t>
+  </si>
+  <si>
+    <t>air_duct_segment</t>
+  </si>
+  <si>
+    <t>hydrant</t>
+  </si>
+  <si>
+    <t>dust_collector</t>
+  </si>
+  <si>
+    <t>fire_rated_door</t>
+  </si>
+  <si>
+    <t>pressure_transmitter</t>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
+  <si>
+    <t>battery_charger</t>
+  </si>
+  <si>
+    <t>mixer_or_agitator</t>
+  </si>
+  <si>
+    <t>furnace</t>
+  </si>
+  <si>
+    <t>reservoir_tank</t>
+  </si>
+  <si>
+    <t>variable_air_volume_unit</t>
+  </si>
+  <si>
+    <t>burner_component_of_asset</t>
+  </si>
+  <si>
+    <t>flow_transmitter</t>
+  </si>
+  <si>
+    <t>electrical_panel_or_cabinet</t>
+  </si>
+  <si>
+    <t>disconnect_switch</t>
+  </si>
+  <si>
+    <t>flow_switch</t>
+  </si>
+  <si>
+    <t>heater</t>
+  </si>
+  <si>
+    <t>generator-set</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>collector_mechanism</t>
+  </si>
+  <si>
+    <t>capacitor</t>
+  </si>
+  <si>
+    <t>level_sensor_element</t>
+  </si>
+  <si>
+    <t>compactor</t>
+  </si>
+  <si>
+    <t>blower</t>
+  </si>
+  <si>
+    <t>controller</t>
+  </si>
+  <si>
+    <t>pump_-_without_drive</t>
+  </si>
+  <si>
+    <t>material_distribution_panel</t>
+  </si>
+  <si>
+    <t>controlled_door_access</t>
+  </si>
+  <si>
+    <t>server_appliance</t>
+  </si>
+  <si>
+    <t>motor</t>
+  </si>
+  <si>
+    <t>quencher</t>
+  </si>
+  <si>
+    <t>protection_relay</t>
+  </si>
+  <si>
+    <t>process_control_panel</t>
+  </si>
+  <si>
+    <t>transfer_switch</t>
+  </si>
+  <si>
+    <t>reactor</t>
+  </si>
+  <si>
+    <t>trap_priming_device</t>
+  </si>
+  <si>
+    <t>instrumentation</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>ash_lagoon</t>
+  </si>
+  <si>
+    <t>storage_tank</t>
+  </si>
+  <si>
+    <t>welding_receptacle</t>
+  </si>
+  <si>
+    <t>vibration_analyzer</t>
+  </si>
+  <si>
+    <t>RTU</t>
+  </si>
+  <si>
+    <t>compressor</t>
+  </si>
+  <si>
+    <t>air_damper</t>
+  </si>
+  <si>
+    <t>motor_starter</t>
+  </si>
+  <si>
+    <t>spill_kit</t>
+  </si>
+  <si>
+    <t>torque_switch</t>
+  </si>
+  <si>
+    <t>boiler</t>
+  </si>
+  <si>
+    <t>conveyor</t>
+  </si>
+  <si>
+    <t>equipment_or_access_chamber</t>
+  </si>
+  <si>
+    <t>hydraulic_power_pack</t>
+  </si>
+  <si>
+    <t>large_stationary_tool</t>
+  </si>
+  <si>
+    <t>level_transmitter</t>
+  </si>
+  <si>
+    <t>surge_suppressor</t>
+  </si>
+  <si>
+    <t>backflow_preventer</t>
+  </si>
+  <si>
+    <t>annunciator_panel</t>
+  </si>
+  <si>
+    <t>first_aid_kit</t>
+  </si>
+  <si>
+    <t>ladder</t>
+  </si>
+  <si>
+    <t>data_logger</t>
+  </si>
+  <si>
+    <t>ground_and_test_device</t>
   </si>
 </sst>
 </file>
@@ -1207,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C799550E-49B1-4512-9CC1-86876BA1337E}">
   <dimension ref="A2:B126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B126"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1222,999 +1219,999 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
+      <c r="A3" t="s">
+        <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="B91" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="B92" t="s">
-        <v>179</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="B93" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="B94" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="B95" t="s">
-        <v>185</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="B96" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="B97" t="s">
-        <v>189</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="B98" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="B99" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>219</v>
       </c>
       <c r="B100" t="s">
-        <v>194</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="B101" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="B102" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="B103" t="s">
-        <v>199</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="B104" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="B105" t="s">
-        <v>203</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>205</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="B107" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="B108" t="s">
-        <v>209</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B109" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="B110" t="s">
-        <v>213</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="B111" t="s">
-        <v>215</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="B112" t="s">
-        <v>217</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="B113" t="s">
-        <v>219</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="B114" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B115" t="s">
-        <v>223</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="B116" t="s">
-        <v>225</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="B117" t="s">
-        <v>226</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>228</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B119" t="s">
-        <v>230</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B120" t="s">
-        <v>232</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B121" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B122" t="s">
-        <v>236</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B123" t="s">
-        <v>238</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B124" t="s">
-        <v>240</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B125" t="s">
-        <v>242</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>243</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Avantis Mapping/SPARQL_tag.xlsx
+++ b/Avantis Mapping/SPARQL_tag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medney\Documents\GitHub\TWONTO\Avantis Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B70913-A2B2-4E7B-9119-02DE4611A750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5655007-D854-4407-AA99-0B09614ABC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{716C0CF8-2E33-46F2-BE6F-578AC5702A19}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{716C0CF8-2E33-46F2-BE6F-578AC5702A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="245">
   <si>
     <t>TWONTO</t>
   </si>
@@ -68,16 +68,9 @@
     <t>G</t>
   </si>
   <si>
-    <t>PDP</t>
-  </si>
-  <si>
     <t>SCAM</t>
   </si>
   <si>
-    <t>AMP_x000D_
-PA</t>
-  </si>
-  <si>
     <t>EV</t>
   </si>
   <si>
@@ -96,9 +89,6 @@
     <t>ENG</t>
   </si>
   <si>
-    <t>RD</t>
-  </si>
-  <si>
     <t>PIP</t>
   </si>
   <si>
@@ -126,18 +116,9 @@
     <t>LS</t>
   </si>
   <si>
-    <t>TIT_x000D_
-TT</t>
-  </si>
-  <si>
     <t>PWU</t>
   </si>
   <si>
-    <t>WIT_x000D_
-WRT_x000D_
-WSC</t>
-  </si>
-  <si>
     <t>MH</t>
   </si>
   <si>
@@ -174,11 +155,6 @@
     <t>HF</t>
   </si>
   <si>
-    <t>V_x000D_
-FCV_x000D_
-PCV</t>
-  </si>
-  <si>
     <t>SB</t>
   </si>
   <si>
@@ -209,11 +185,6 @@
     <t>INJ</t>
   </si>
   <si>
-    <t>ZIT_x000D_
-ZRT_x000D_
-ZT</t>
-  </si>
-  <si>
     <t>DT</t>
   </si>
   <si>
@@ -226,10 +197,6 @@
     <t>OTF</t>
   </si>
   <si>
-    <t>BUS_x000D_
-SWG</t>
-  </si>
-  <si>
     <t>DU</t>
   </si>
   <si>
@@ -239,10 +206,6 @@
     <t>DCU</t>
   </si>
   <si>
-    <t>PIT_x000D_
-PT</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
@@ -267,13 +230,6 @@
     <t>BU</t>
   </si>
   <si>
-    <t>FIT_x000D_
-FT</t>
-  </si>
-  <si>
-    <t>BUS</t>
-  </si>
-  <si>
     <t>DS</t>
   </si>
   <si>
@@ -301,16 +257,9 @@
     <t>CMP</t>
   </si>
   <si>
-    <t>BL_x000D_
-FN</t>
-  </si>
-  <si>
     <t>CT</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>DP</t>
   </si>
   <si>
@@ -338,9 +287,6 @@
     <t>TPD</t>
   </si>
   <si>
-    <t>INQ</t>
-  </si>
-  <si>
     <t>LAG</t>
   </si>
   <si>
@@ -353,10 +299,6 @@
     <t>VIT</t>
   </si>
   <si>
-    <t>RPU_x000D_
-RTU</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -390,11 +332,6 @@
     <t>MON</t>
   </si>
   <si>
-    <t>LRT_x000D_
-LIT_x000D_
-LT</t>
-  </si>
-  <si>
     <t>VSS</t>
   </si>
   <si>
@@ -422,234 +359,60 @@
     <t>Tag</t>
   </si>
   <si>
-    <t>humidier</t>
-  </si>
-  <si>
-    <t>chlorinator_system</t>
-  </si>
-  <si>
-    <t>ozone_generator</t>
-  </si>
-  <si>
     <t>gearbox</t>
   </si>
   <si>
-    <t>alarm_device</t>
-  </si>
-  <si>
     <t>clarifier</t>
   </si>
   <si>
-    <t>instrument_element</t>
-  </si>
-  <si>
-    <t>pressurized_sewer_segment</t>
-  </si>
-  <si>
-    <t>channel_gate</t>
-  </si>
-  <si>
-    <t>600V_insulated_case_electrical_cabinet</t>
-  </si>
-  <si>
-    <t>security_camera</t>
-  </si>
-  <si>
-    <t>public_annoucement_speaker</t>
-  </si>
-  <si>
-    <t>AC_evaporator_unit</t>
-  </si>
-  <si>
     <t>dehumidifier</t>
   </si>
   <si>
-    <t>ac_condenser_unit</t>
-  </si>
-  <si>
-    <t>pulsation_dampener</t>
-  </si>
-  <si>
     <t>crane</t>
   </si>
   <si>
     <t>engine</t>
   </si>
   <si>
-    <t>rupture_disc</t>
-  </si>
-  <si>
-    <t>pipe_segment</t>
-  </si>
-  <si>
     <t>chiller</t>
   </si>
   <si>
     <t>centrifuge</t>
   </si>
   <si>
-    <t>air_handler_unit</t>
-  </si>
-  <si>
-    <t>auto_sampler</t>
-  </si>
-  <si>
-    <t>automatic_external_defibrillator</t>
-  </si>
-  <si>
     <t>elevator</t>
   </si>
   <si>
-    <t>self-contained_breathing_apparatus</t>
-  </si>
-  <si>
-    <t>level_switch</t>
-  </si>
-  <si>
-    <t>temperature_transmitter</t>
-  </si>
-  <si>
-    <t>power_washer</t>
-  </si>
-  <si>
-    <t>weight_scale</t>
-  </si>
-  <si>
     <t>manhole</t>
   </si>
   <si>
-    <t>display_panel</t>
-  </si>
-  <si>
-    <t>roll_up_door</t>
-  </si>
-  <si>
-    <t>UV_disinfection_assembly</t>
-  </si>
-  <si>
-    <t>instrument_gauge_or_display</t>
-  </si>
-  <si>
     <t>transformer</t>
   </si>
   <si>
-    <t>flow_element</t>
-  </si>
-  <si>
-    <t>cable_segment</t>
-  </si>
-  <si>
-    <t>fixed_gas_detector</t>
-  </si>
-  <si>
-    <t>slude_density_meter</t>
-  </si>
-  <si>
     <t>strainer</t>
   </si>
   <si>
-    <t>power_harmonic_filter</t>
-  </si>
-  <si>
     <t>valve</t>
   </si>
   <si>
-    <t>air_scrubber</t>
-  </si>
-  <si>
-    <t>grinder_or_comminutor</t>
-  </si>
-  <si>
-    <t>air_condition</t>
-  </si>
-  <si>
-    <t>120V-208V_electrical_panel</t>
-  </si>
-  <si>
-    <t>heat_exchanger</t>
-  </si>
-  <si>
     <t>computer</t>
   </si>
   <si>
-    <t>SCADA_computer_terminal</t>
-  </si>
-  <si>
-    <t>instrument_transmitter</t>
-  </si>
-  <si>
-    <t>temperature_sensor_element</t>
-  </si>
-  <si>
     <t>ejector</t>
   </si>
   <si>
-    <t>position_sensing_instrument</t>
-  </si>
-  <si>
-    <t>condensate_trap</t>
-  </si>
-  <si>
     <t>classifier</t>
   </si>
   <si>
-    <t>flame_arrestor</t>
-  </si>
-  <si>
-    <t>outfall_or_discharge_point</t>
-  </si>
-  <si>
-    <t>5kV_electrical_cabinet</t>
-  </si>
-  <si>
-    <t>air_duct_segment</t>
-  </si>
-  <si>
     <t>hydrant</t>
   </si>
   <si>
-    <t>dust_collector</t>
-  </si>
-  <si>
-    <t>fire_rated_door</t>
-  </si>
-  <si>
-    <t>pressure_transmitter</t>
-  </si>
-  <si>
     <t>screen</t>
   </si>
   <si>
-    <t>battery_charger</t>
-  </si>
-  <si>
-    <t>mixer_or_agitator</t>
-  </si>
-  <si>
     <t>furnace</t>
   </si>
   <si>
-    <t>reservoir_tank</t>
-  </si>
-  <si>
-    <t>variable_air_volume_unit</t>
-  </si>
-  <si>
-    <t>burner_component_of_asset</t>
-  </si>
-  <si>
-    <t>flow_transmitter</t>
-  </si>
-  <si>
-    <t>electrical_panel_or_cabinet</t>
-  </si>
-  <si>
-    <t>disconnect_switch</t>
-  </si>
-  <si>
-    <t>flow_switch</t>
-  </si>
-  <si>
     <t>heater</t>
   </si>
   <si>
@@ -659,15 +422,9 @@
     <t>well</t>
   </si>
   <si>
-    <t>collector_mechanism</t>
-  </si>
-  <si>
     <t>capacitor</t>
   </si>
   <si>
-    <t>level_sensor_element</t>
-  </si>
-  <si>
     <t>compactor</t>
   </si>
   <si>
@@ -677,112 +434,352 @@
     <t>controller</t>
   </si>
   <si>
-    <t>pump_-_without_drive</t>
-  </si>
-  <si>
-    <t>material_distribution_panel</t>
-  </si>
-  <si>
-    <t>controlled_door_access</t>
-  </si>
-  <si>
-    <t>server_appliance</t>
-  </si>
-  <si>
     <t>motor</t>
   </si>
   <si>
     <t>quencher</t>
   </si>
   <si>
-    <t>protection_relay</t>
-  </si>
-  <si>
-    <t>process_control_panel</t>
-  </si>
-  <si>
-    <t>transfer_switch</t>
-  </si>
-  <si>
     <t>reactor</t>
   </si>
   <si>
-    <t>trap_priming_device</t>
-  </si>
-  <si>
-    <t>instrumentation</t>
-  </si>
-  <si>
     <t>battery</t>
   </si>
   <si>
-    <t>ash_lagoon</t>
-  </si>
-  <si>
-    <t>storage_tank</t>
-  </si>
-  <si>
-    <t>welding_receptacle</t>
-  </si>
-  <si>
-    <t>vibration_analyzer</t>
-  </si>
-  <si>
     <t>RTU</t>
   </si>
   <si>
     <t>compressor</t>
   </si>
   <si>
-    <t>air_damper</t>
-  </si>
-  <si>
-    <t>motor_starter</t>
-  </si>
-  <si>
-    <t>spill_kit</t>
-  </si>
-  <si>
-    <t>torque_switch</t>
-  </si>
-  <si>
     <t>boiler</t>
   </si>
   <si>
     <t>conveyor</t>
   </si>
   <si>
-    <t>equipment_or_access_chamber</t>
-  </si>
-  <si>
-    <t>hydraulic_power_pack</t>
-  </si>
-  <si>
-    <t>large_stationary_tool</t>
-  </si>
-  <si>
-    <t>level_transmitter</t>
-  </si>
-  <si>
-    <t>surge_suppressor</t>
-  </si>
-  <si>
-    <t>backflow_preventer</t>
-  </si>
-  <si>
-    <t>annunciator_panel</t>
-  </si>
-  <si>
-    <t>first_aid_kit</t>
-  </si>
-  <si>
     <t>ladder</t>
   </si>
   <si>
-    <t>data_logger</t>
-  </si>
-  <si>
-    <t>ground_and_test_device</t>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX tw: &lt;http://www.toronto.ca/TWONTO#&gt;
+SELECT (STR(?label) as ?TWONTO) (STR(?object) as ?Avantis)
+WHERE { 
+    ?entityIRI tw:is_equivalent_to_tag_code ?object ;
+              rdfs:label ?label .
+}</t>
+  </si>
+  <si>
+    <t>mixer or agitator</t>
+  </si>
+  <si>
+    <t>cable segment</t>
+  </si>
+  <si>
+    <t>UV disinfection assembly</t>
+  </si>
+  <si>
+    <t>humidifier</t>
+  </si>
+  <si>
+    <t>material distribution panel</t>
+  </si>
+  <si>
+    <t>burner component of asset</t>
+  </si>
+  <si>
+    <t>display panel</t>
+  </si>
+  <si>
+    <t>large stationary tool</t>
+  </si>
+  <si>
+    <t>temperature sensor element</t>
+  </si>
+  <si>
+    <t>flow switch</t>
+  </si>
+  <si>
+    <t>pipe segment</t>
+  </si>
+  <si>
+    <t>spill kit</t>
+  </si>
+  <si>
+    <t>fire rated door</t>
+  </si>
+  <si>
+    <t>power harmonic filter</t>
+  </si>
+  <si>
+    <t>disconnect switch</t>
+  </si>
+  <si>
+    <t>annunciator panel</t>
+  </si>
+  <si>
+    <t>pressurized sewer segment</t>
+  </si>
+  <si>
+    <t>air duct segment</t>
+  </si>
+  <si>
+    <t>surge suppressor</t>
+  </si>
+  <si>
+    <t>PCV</t>
+  </si>
+  <si>
+    <t>backflow preventer</t>
+  </si>
+  <si>
+    <t>slude density meter</t>
+  </si>
+  <si>
+    <t>LV electrical panel</t>
+  </si>
+  <si>
+    <t>level switch</t>
+  </si>
+  <si>
+    <t>self-contained breathing apparatus</t>
+  </si>
+  <si>
+    <t>AC condenser unit</t>
+  </si>
+  <si>
+    <t>pressure transmitter</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>condensate trap</t>
+  </si>
+  <si>
+    <t>instrument transmitter</t>
+  </si>
+  <si>
+    <t>instrument gauge or display</t>
+  </si>
+  <si>
+    <t>FCV</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>dust collector</t>
+  </si>
+  <si>
+    <t>RTU panel</t>
+  </si>
+  <si>
+    <t>auto sampler</t>
+  </si>
+  <si>
+    <t>hydraulic power pack</t>
+  </si>
+  <si>
+    <t>air scrubber</t>
+  </si>
+  <si>
+    <t>air condition</t>
+  </si>
+  <si>
+    <t>air damper</t>
+  </si>
+  <si>
+    <t>controlled door access</t>
+  </si>
+  <si>
+    <t>roll up door</t>
+  </si>
+  <si>
+    <t>AC evaporator unit</t>
+  </si>
+  <si>
+    <t>flow element</t>
+  </si>
+  <si>
+    <t>data logger</t>
+  </si>
+  <si>
+    <t>process control panel</t>
+  </si>
+  <si>
+    <t>first aid kit</t>
+  </si>
+  <si>
+    <t>ozone generator</t>
+  </si>
+  <si>
+    <t>trap priming device</t>
+  </si>
+  <si>
+    <t>weight scale</t>
+  </si>
+  <si>
+    <t>WRT</t>
+  </si>
+  <si>
+    <t>instrument sensor element</t>
+  </si>
+  <si>
+    <t>ground and test device</t>
+  </si>
+  <si>
+    <t>motor starter</t>
+  </si>
+  <si>
+    <t>grinder or comminutor</t>
+  </si>
+  <si>
+    <t>flow transmitter</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>WIT</t>
+  </si>
+  <si>
+    <t>alarm device</t>
+  </si>
+  <si>
+    <t>server appliance</t>
+  </si>
+  <si>
+    <t>outfall or discharge point</t>
+  </si>
+  <si>
+    <t>level transmitter</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>automatic external defibrillator</t>
+  </si>
+  <si>
+    <t>FIT</t>
+  </si>
+  <si>
+    <t>security camera</t>
+  </si>
+  <si>
+    <t>PIT</t>
+  </si>
+  <si>
+    <t>protection relay</t>
+  </si>
+  <si>
+    <t>pulsation dampener</t>
+  </si>
+  <si>
+    <t>WSC</t>
+  </si>
+  <si>
+    <t>LRT</t>
+  </si>
+  <si>
+    <t>LIT</t>
+  </si>
+  <si>
+    <t>variable air volume unit</t>
+  </si>
+  <si>
+    <t>reservoir tank</t>
+  </si>
+  <si>
+    <t>position sensing instrument</t>
+  </si>
+  <si>
+    <t>ZT</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>collector mechanism</t>
+  </si>
+  <si>
+    <t>ZIT</t>
+  </si>
+  <si>
+    <t>battery charger</t>
+  </si>
+  <si>
+    <t>public annoucement speaker</t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>welding receptacle</t>
+  </si>
+  <si>
+    <t>channel gate</t>
+  </si>
+  <si>
+    <t>ZRT</t>
+  </si>
+  <si>
+    <t>flame arrestor</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>transfer switch</t>
+  </si>
+  <si>
+    <t>power washer</t>
+  </si>
+  <si>
+    <t>level sensor element</t>
+  </si>
+  <si>
+    <t>fixed gas detector</t>
+  </si>
+  <si>
+    <t>ash lagoon</t>
+  </si>
+  <si>
+    <t>flowmeter</t>
+  </si>
+  <si>
+    <t>operator interface terminal</t>
+  </si>
+  <si>
+    <t>torque switch</t>
+  </si>
+  <si>
+    <t>chlorinator system</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>RPU</t>
+  </si>
+  <si>
+    <t>air handler unit</t>
+  </si>
+  <si>
+    <t>heat exchanger</t>
+  </si>
+  <si>
+    <t>storage tank</t>
+  </si>
+  <si>
+    <t>equipment or access chamber</t>
+  </si>
+  <si>
+    <t>vibration analyzer</t>
   </si>
 </sst>
 </file>
@@ -895,8 +892,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BC09C4A-7B59-4975-AFA2-25A1F79AB441}" name="Table1" displayName="Table1" ref="A2:B126" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:B126" xr:uid="{3BC09C4A-7B59-4975-AFA2-25A1F79AB441}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BC09C4A-7B59-4975-AFA2-25A1F79AB441}" name="Table1" displayName="Table1" ref="A2:B141" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:B141" xr:uid="{3BC09C4A-7B59-4975-AFA2-25A1F79AB441}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6954C25C-9295-466B-8916-09F7AE9B1E9C}" name="TWONTO"/>
     <tableColumn id="2" xr3:uid="{C2EFA1BF-9094-4221-B7A9-7713F0DEA95D}" name="Tag"/>
@@ -1202,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C799550E-49B1-4512-9CC1-86876BA1337E}">
-  <dimension ref="A2:B126"/>
+  <dimension ref="A1:B141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1214,1004 +1211,1129 @@
     <col min="2" max="2" width="61.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>151</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>29</v>
+        <v>126</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>31</v>
+        <v>118</v>
+      </c>
+      <c r="B33" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>166</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>44</v>
+        <v>171</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>177</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>55</v>
+        <v>113</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>182</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>60</v>
+        <v>180</v>
+      </c>
+      <c r="B62" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>187</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>64</v>
+        <v>184</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>195</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>73</v>
+        <v>132</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B81" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>206</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>84</v>
+        <v>191</v>
+      </c>
+      <c r="B87" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B88" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B92" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B93" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B94" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="B95" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B96" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="B97" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B98" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="B99" t="s">
-        <v>95</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B100" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="B101" t="s">
-        <v>66</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B102" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>222</v>
+        <v>134</v>
       </c>
       <c r="B103" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B104" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B105" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>225</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>101</v>
+        <v>118</v>
+      </c>
+      <c r="B106" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>226</v>
+        <v>118</v>
       </c>
       <c r="B107" t="s">
-        <v>102</v>
+        <v>218</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B108" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B109" t="s">
-        <v>104</v>
+        <v>220</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B110" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B111" t="s">
-        <v>106</v>
+        <v>223</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="B112" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B113" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B114" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="B115" t="s">
-        <v>110</v>
+        <v>226</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B116" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B117" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>236</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>113</v>
+        <v>229</v>
+      </c>
+      <c r="B118" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>237</v>
+        <v>124</v>
       </c>
       <c r="B119" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>238</v>
+        <v>108</v>
       </c>
       <c r="B120" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B121" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B122" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="B123" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B124" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B125" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="B126" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>148</v>
+      </c>
+      <c r="B127" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>235</v>
+      </c>
+      <c r="B128" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>236</v>
+      </c>
+      <c r="B129" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>237</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>222</v>
+      </c>
+      <c r="B131" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>176</v>
+      </c>
+      <c r="B132" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>234</v>
+      </c>
+      <c r="B133" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>240</v>
+      </c>
+      <c r="B134" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>241</v>
+      </c>
+      <c r="B135" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>242</v>
+      </c>
+      <c r="B136" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>131</v>
+      </c>
+      <c r="B137" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>243</v>
+      </c>
+      <c r="B138" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>244</v>
+      </c>
+      <c r="B139" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>185</v>
+      </c>
+      <c r="B140" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>121</v>
+      </c>
+      <c r="B141" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
